--- a/demo.xlsx
+++ b/demo.xlsx
@@ -411,7 +411,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>38</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>53</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>39</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>47</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>54</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>63</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>45</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>46</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>54</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>58</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <v>36</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25">
         <v>56</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>69</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>57</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>46</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>29</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>60</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>34</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>55</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>59</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>63</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>58</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>29</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>40</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55">
         <v>41</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56">
         <v>29</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>50</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60">
         <v>45</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62">
         <v>56</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63">
         <v>18</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64">
         <v>40</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68">
         <v>36</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72">
         <v>56</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78">
         <v>39</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79">
         <v>34</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82">
         <v>29</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85">
         <v>48</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86">
         <v>26</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88">
         <v>66</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89">
         <v>48</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91">
         <v>20</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94">
         <v>57</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96">
         <v>35</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97">
         <v>51</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98">
         <v>28</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99">
         <v>46</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101">
         <v>29</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102">
         <v>23</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103">
         <v>35</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104">
         <v>23</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107">
         <v>32</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110">
         <v>28</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111">
         <v>26</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112">
         <v>66</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B114">
         <v>30</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115">
         <v>43</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124">
         <v>30</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125">
         <v>20</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126">
         <v>30</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B127">
         <v>50</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128">
         <v>50</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135">
         <v>23</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B139">
         <v>61</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140">
         <v>62</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B141">
         <v>49</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142">
         <v>61</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B145">
         <v>42</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B151">
         <v>22</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B152">
         <v>57</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153">
         <v>21</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155">
         <v>52</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162">
         <v>35</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163">
         <v>23</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164">
         <v>56</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B165">
         <v>45</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B166">
         <v>26</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B168">
         <v>23</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169">
         <v>23</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B171">
         <v>32</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173">
         <v>59</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B176">
         <v>45</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B177">
         <v>69</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B179">
         <v>48</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B180">
         <v>61</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184">
         <v>21</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B188">
         <v>34</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B189">
         <v>46</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B192">
         <v>55</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193">
         <v>47</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B194">
         <v>36</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B195">
         <v>32</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B197">
         <v>24</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199">
         <v>28</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200">
         <v>50</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B207">
         <v>46</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B208">
         <v>47</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B210">
         <v>44</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B215">
         <v>25</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B216">
         <v>45</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B217">
         <v>25</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B218">
         <v>37</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B219">
         <v>69</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B222">
         <v>56</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B223">
         <v>69</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B225">
         <v>48</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B226">
         <v>40</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B227">
         <v>23</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B228">
         <v>45</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B230">
         <v>59</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B232">
         <v>30</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B233">
         <v>63</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B234">
         <v>40</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B236">
         <v>36</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B237">
         <v>47</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B238">
         <v>47</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B240">
         <v>49</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B241">
         <v>67</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B242">
         <v>52</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B244">
         <v>47</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B246">
         <v>61</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B248">
         <v>40</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B249">
         <v>33</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B250">
         <v>25</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B251">
         <v>66</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B252">
         <v>46</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B254">
         <v>45</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B256">
         <v>37</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B257">
         <v>33</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B261">
         <v>29</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B262">
         <v>55</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B263">
         <v>19</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B267">
         <v>52</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B269">
         <v>63</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B270">
         <v>69</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B271">
         <v>60</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B273">
         <v>63</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B276">
         <v>58</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B277">
         <v>62</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B281">
         <v>42</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B285">
         <v>51</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B290">
         <v>44</v>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B291">
         <v>50</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B295">
         <v>40</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B297">
         <v>48</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B299">
         <v>22</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B303">
         <v>51</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B307">
         <v>22</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B309">
         <v>18</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B310">
         <v>43</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B311">
         <v>58</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B312">
         <v>25</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B313">
         <v>25</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B319">
         <v>57</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B320">
         <v>68</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B323">
         <v>50</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B329">
         <v>65</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B331">
         <v>59</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B332">
         <v>51</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B334">
         <v>31</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B336">
         <v>39</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B337">
         <v>45</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="338" spans="1:5">
       <c r="A338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B338">
         <v>56</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B340">
         <v>51</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B342">
         <v>49</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B346">
         <v>46</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B350">
         <v>49</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B351">
         <v>69</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B355">
         <v>28</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B356">
         <v>50</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B357">
         <v>51</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B358">
         <v>23</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="362" spans="1:5">
       <c r="A362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B362">
         <v>26</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="363" spans="1:5">
       <c r="A363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B363">
         <v>61</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="364" spans="1:5">
       <c r="A364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B364">
         <v>62</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B366">
         <v>34</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B367">
         <v>50</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B373">
         <v>64</v>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B377">
         <v>63</v>
@@ -6820,7 +6820,7 @@
     </row>
     <row r="379" spans="1:5">
       <c r="A379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B379">
         <v>56</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B380">
         <v>69</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="383" spans="1:5">
       <c r="A383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B383">
         <v>50</v>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="384" spans="1:5">
       <c r="A384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B384">
         <v>58</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B385">
         <v>51</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B386">
         <v>24</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B388">
         <v>69</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="391" spans="1:5">
       <c r="A391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B391">
         <v>31</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="400" spans="1:5">
       <c r="A400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B400">
         <v>36</v>
@@ -7194,7 +7194,7 @@
     </row>
     <row r="401" spans="1:5">
       <c r="A401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B401">
         <v>58</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="404" spans="1:5">
       <c r="A404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B404">
         <v>50</v>
@@ -7262,7 +7262,7 @@
     </row>
     <row r="405" spans="1:5">
       <c r="A405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B405">
         <v>67</v>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="406" spans="1:5">
       <c r="A406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B406">
         <v>64</v>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="407" spans="1:5">
       <c r="A407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B407">
         <v>37</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="408" spans="1:5">
       <c r="A408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B408">
         <v>59</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="409" spans="1:5">
       <c r="A409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B409">
         <v>38</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="411" spans="1:5">
       <c r="A411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B411">
         <v>64</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="414" spans="1:5">
       <c r="A414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B414">
         <v>27</v>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="416" spans="1:5">
       <c r="A416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B416">
         <v>44</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="421" spans="1:5">
       <c r="A421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B421">
         <v>56</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="423" spans="1:5">
       <c r="A423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B423">
         <v>61</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="426" spans="1:5">
       <c r="A426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B426">
         <v>49</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="427" spans="1:5">
       <c r="A427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B427">
         <v>59</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="428" spans="1:5">
       <c r="A428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B428">
         <v>25</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="430" spans="1:5">
       <c r="A430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B430">
         <v>24</v>
@@ -7738,7 +7738,7 @@
     </row>
     <row r="433" spans="1:5">
       <c r="A433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B433">
         <v>60</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="434" spans="1:5">
       <c r="A434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B434">
         <v>57</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="437" spans="1:5">
       <c r="A437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B437">
         <v>56</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="439" spans="1:5">
       <c r="A439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B439">
         <v>46</v>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="440" spans="1:5">
       <c r="A440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B440">
         <v>54</v>
@@ -7891,7 +7891,7 @@
     </row>
     <row r="442" spans="1:5">
       <c r="A442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B442">
         <v>28</v>
@@ -7908,7 +7908,7 @@
     </row>
     <row r="443" spans="1:5">
       <c r="A443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B443">
         <v>38</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="444" spans="1:5">
       <c r="A444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B444">
         <v>18</v>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="445" spans="1:5">
       <c r="A445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B445">
         <v>34</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="446" spans="1:5">
       <c r="A446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B446">
         <v>48</v>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="449" spans="1:5">
       <c r="A449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B449">
         <v>62</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="451" spans="1:5">
       <c r="A451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B451">
         <v>69</v>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="452" spans="1:5">
       <c r="A452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B452">
         <v>23</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="457" spans="1:5">
       <c r="A457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B457">
         <v>45</v>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="462" spans="1:5">
       <c r="A462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B462">
         <v>50</v>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="465" spans="1:5">
       <c r="A465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B465">
         <v>25</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="468" spans="1:5">
       <c r="A468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B468">
         <v>31</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="470" spans="1:5">
       <c r="A470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B470">
         <v>39</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="472" spans="1:5">
       <c r="A472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B472">
         <v>30</v>
@@ -8418,7 +8418,7 @@
     </row>
     <row r="473" spans="1:5">
       <c r="A473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B473">
         <v>44</v>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="474" spans="1:5">
       <c r="A474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B474">
         <v>36</v>
@@ -8452,7 +8452,7 @@
     </row>
     <row r="475" spans="1:5">
       <c r="A475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B475">
         <v>55</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="479" spans="1:5">
       <c r="A479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B479">
         <v>53</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="481" spans="1:5">
       <c r="A481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B481">
         <v>55</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="482" spans="1:5">
       <c r="A482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B482">
         <v>19</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="483" spans="1:5">
       <c r="A483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B483">
         <v>62</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="484" spans="1:5">
       <c r="A484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B484">
         <v>59</v>
@@ -8622,7 +8622,7 @@
     </row>
     <row r="485" spans="1:5">
       <c r="A485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B485">
         <v>61</v>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="487" spans="1:5">
       <c r="A487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B487">
         <v>33</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="488" spans="1:5">
       <c r="A488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B488">
         <v>46</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="489" spans="1:5">
       <c r="A489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B489">
         <v>58</v>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="494" spans="1:5">
       <c r="A494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B494">
         <v>44</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="495" spans="1:5">
       <c r="A495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B495">
         <v>38</v>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="499" spans="1:5">
       <c r="A499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B499">
         <v>43</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="500" spans="1:5">
       <c r="A500">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B500">
         <v>37</v>
